--- a/data/trans_orig/P5701-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P5701-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>232722</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>208262</v>
+        <v>210013</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>258773</v>
+        <v>258646</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3984001826413565</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3565264615552663</v>
+        <v>0.359523818255414</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4429978072078808</v>
+        <v>0.4427800742419606</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>379</v>
@@ -765,19 +765,19 @@
         <v>384498</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>355286</v>
+        <v>353417</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>414438</v>
+        <v>414357</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4168749498757824</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3852039475755829</v>
+        <v>0.3831771967138646</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4493370667984651</v>
+        <v>0.4492490257492041</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>609</v>
@@ -786,19 +786,19 @@
         <v>617219</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>580095</v>
+        <v>579546</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>660319</v>
+        <v>655985</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.409711286475292</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3850681129043047</v>
+        <v>0.3847035753613252</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4383209899322337</v>
+        <v>0.4354437635206169</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>137007</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117022</v>
+        <v>117315</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>159468</v>
+        <v>157963</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2345444925408956</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2003313782317357</v>
+        <v>0.2008333165834302</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2729954614432129</v>
+        <v>0.2704189578361613</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>187</v>
@@ -836,19 +836,19 @@
         <v>193168</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>169835</v>
+        <v>169233</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>219149</v>
+        <v>223244</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2094344972138842</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1841360445935795</v>
+        <v>0.1834835317015294</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.23760251286059</v>
+        <v>0.2420424461979788</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>324</v>
@@ -857,19 +857,19 @@
         <v>330175</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>298108</v>
+        <v>299815</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>359165</v>
+        <v>365920</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2191709963117136</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1978845370539851</v>
+        <v>0.1990174980450199</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2384143688719438</v>
+        <v>0.2428985818766275</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>136663</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>115247</v>
+        <v>117958</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>158441</v>
+        <v>158746</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2339559432472457</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1972935367433301</v>
+        <v>0.2019348293077057</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2712373085301995</v>
+        <v>0.2717590032123605</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>176</v>
@@ -907,19 +907,19 @@
         <v>185867</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>161359</v>
+        <v>160246</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>208772</v>
+        <v>212599</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2015183894864093</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1749460562892323</v>
+        <v>0.1737399001778861</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2263524836514418</v>
+        <v>0.2305011167381292</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>311</v>
@@ -928,19 +928,19 @@
         <v>322530</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>286063</v>
+        <v>290856</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>356387</v>
+        <v>355048</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2140961780847382</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1898890997220939</v>
+        <v>0.1930707130123144</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2365704903653021</v>
+        <v>0.2356815834231253</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>61602</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48069</v>
+        <v>46589</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>79453</v>
+        <v>78391</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.105457837460911</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.082290112553042</v>
+        <v>0.07975633686283677</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1360175614765905</v>
+        <v>0.1341982307776135</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>115</v>
@@ -978,19 +978,19 @@
         <v>124407</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>102755</v>
+        <v>104662</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>145529</v>
+        <v>146918</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1348832553126392</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1114077139742153</v>
+        <v>0.1134755218596648</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1577836979271055</v>
+        <v>0.1592890855541384</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>174</v>
@@ -999,19 +999,19 @@
         <v>186010</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>161152</v>
+        <v>160026</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>215089</v>
+        <v>214231</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1234734342180725</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1069731421957325</v>
+        <v>0.1062255971557897</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1427764056619319</v>
+        <v>0.142206723496371</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>16147</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9150</v>
+        <v>9691</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27155</v>
+        <v>28798</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02764154410959134</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01566448522805063</v>
+        <v>0.01658980297712636</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0464877654188889</v>
+        <v>0.04930042405536912</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -1049,19 +1049,19 @@
         <v>34393</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>22164</v>
+        <v>22263</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47155</v>
+        <v>50374</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03728890811128494</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02403085628892577</v>
+        <v>0.02413814826154012</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0511258090858653</v>
+        <v>0.0546159261860247</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>41</v>
@@ -1070,19 +1070,19 @@
         <v>50539</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>36120</v>
+        <v>36668</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>67396</v>
+        <v>69056</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03354810491018369</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02397666000907322</v>
+        <v>0.02434025486423731</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04473735712200479</v>
+        <v>0.04583933461252014</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>480823</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>449325</v>
+        <v>447710</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>517427</v>
+        <v>514229</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4460765017490658</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4168546723200841</v>
+        <v>0.4153567031049804</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.480034884941995</v>
+        <v>0.4770683590480333</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>424</v>
@@ -1195,19 +1195,19 @@
         <v>431607</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>401767</v>
+        <v>400144</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>465178</v>
+        <v>464041</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.408123990335402</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3799079221290893</v>
+        <v>0.3783727164261338</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4398686330778514</v>
+        <v>0.4387933037251989</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>892</v>
@@ -1216,19 +1216,19 @@
         <v>912430</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>866397</v>
+        <v>869874</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>960541</v>
+        <v>961139</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4272811374090132</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4057242936333608</v>
+        <v>0.4073524746656275</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4498111550718227</v>
+        <v>0.4500913466066583</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>329112</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>299118</v>
+        <v>297764</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>359371</v>
+        <v>357504</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3053290565845343</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2775023790393875</v>
+        <v>0.2762460695406265</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3334014548946694</v>
+        <v>0.3316688653516805</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>313</v>
@@ -1266,19 +1266,19 @@
         <v>320116</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>290496</v>
+        <v>293003</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>352527</v>
+        <v>350616</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.302699264590278</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2746905572999217</v>
+        <v>0.2770616845284151</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3333470344622309</v>
+        <v>0.3315396522021381</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>637</v>
@@ -1287,19 +1287,19 @@
         <v>649228</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>602695</v>
+        <v>606707</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>688361</v>
+        <v>692195</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3040266948479983</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2822357510270351</v>
+        <v>0.2841143022744962</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3223519828471186</v>
+        <v>0.3241474100462112</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>198111</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>172640</v>
+        <v>174472</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>222330</v>
+        <v>225750</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1837948528446833</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1601642489182179</v>
+        <v>0.1618638804666557</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.206263037954505</v>
+        <v>0.20943584324074</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>205</v>
@@ -1337,19 +1337,19 @@
         <v>212788</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>187862</v>
+        <v>187075</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>241424</v>
+        <v>240722</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2012106673808071</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1776413654663157</v>
+        <v>0.1768966911876318</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2282890586759905</v>
+        <v>0.2276247404249232</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>405</v>
@@ -1358,19 +1358,19 @@
         <v>410899</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>374493</v>
+        <v>373110</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>448139</v>
+        <v>449069</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1924197518906891</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1753708701532829</v>
+        <v>0.1747232873797738</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2098588235148156</v>
+        <v>0.210294283674184</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>51266</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38747</v>
+        <v>38134</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66834</v>
+        <v>66955</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04756140676076934</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03594691509713135</v>
+        <v>0.03537779363834676</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06200408067661622</v>
+        <v>0.06211635608631943</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -1408,19 +1408,19 @@
         <v>82095</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65588</v>
+        <v>64364</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102763</v>
+        <v>100767</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07762819136563014</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06201924884261541</v>
+        <v>0.06086210517258135</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09717198793958097</v>
+        <v>0.09528486017195216</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>126</v>
@@ -1429,19 +1429,19 @@
         <v>133361</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111830</v>
+        <v>112098</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>158791</v>
+        <v>156255</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06245149308530146</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05236888346962344</v>
+        <v>0.05249408571881854</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07436015164417524</v>
+        <v>0.0731727027856101</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>18581</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9994</v>
+        <v>10338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29805</v>
+        <v>30936</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01723818206094723</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00927172507860961</v>
+        <v>0.009590667858301564</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02765153003452164</v>
+        <v>0.02870083892616488</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1479,19 +1479,19 @@
         <v>10933</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5453</v>
+        <v>5347</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20978</v>
+        <v>21257</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01033788632788273</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005156582578636945</v>
+        <v>0.005055687834970539</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01983618338056505</v>
+        <v>0.02010011401415681</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -1500,19 +1500,19 @@
         <v>29514</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19685</v>
+        <v>18345</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43924</v>
+        <v>42700</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01382092276699797</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009218411621810923</v>
+        <v>0.008590917071096866</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02056902573863923</v>
+        <v>0.01999606796821306</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>535216</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>500861</v>
+        <v>503059</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>567371</v>
+        <v>569544</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4771922960460166</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4465621084184062</v>
+        <v>0.4485215788909077</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5058613003158471</v>
+        <v>0.5077989487704051</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>401</v>
@@ -1625,19 +1625,19 @@
         <v>396017</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>366056</v>
+        <v>364857</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>426290</v>
+        <v>428791</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3984315678209019</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3682873663267804</v>
+        <v>0.3670813194257634</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.428889489440118</v>
+        <v>0.4314051394151279</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>924</v>
@@ -1646,19 +1646,19 @@
         <v>931233</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>890072</v>
+        <v>885934</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>977853</v>
+        <v>980233</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4401882055865711</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4207318245905371</v>
+        <v>0.4187754333526965</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4622250750661411</v>
+        <v>0.4633500653906689</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>292487</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>261633</v>
+        <v>268005</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>322811</v>
+        <v>322564</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2607783239999725</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2332689236691144</v>
+        <v>0.2389498070311065</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2878143141305097</v>
+        <v>0.2875943402226345</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>326</v>
@@ -1696,19 +1696,19 @@
         <v>328544</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>299070</v>
+        <v>298412</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>358650</v>
+        <v>360267</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3305471479860423</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3008932089328971</v>
+        <v>0.3002311883701974</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3608361955872782</v>
+        <v>0.3624630744043881</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>617</v>
@@ -1717,19 +1717,19 @@
         <v>621031</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>581358</v>
+        <v>580528</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>660050</v>
+        <v>662395</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2935577552242563</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2748041824712222</v>
+        <v>0.2744120851839036</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3120016313526173</v>
+        <v>0.3131102756379429</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>239908</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>213943</v>
+        <v>213616</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>268020</v>
+        <v>265390</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2138989461524956</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1907486994721342</v>
+        <v>0.1904576157929482</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2389632607748666</v>
+        <v>0.2366187529368232</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>191</v>
@@ -1767,19 +1767,19 @@
         <v>197306</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>175390</v>
+        <v>172017</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>226797</v>
+        <v>222732</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1985089210984159</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1764598137154605</v>
+        <v>0.1730653995780452</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.228180252298521</v>
+        <v>0.2240896962081632</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>433</v>
@@ -1788,19 +1788,19 @@
         <v>437214</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>400476</v>
+        <v>401496</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>471764</v>
+        <v>473129</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2066682628905714</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1893024120581044</v>
+        <v>0.1897848830048672</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2230001938708878</v>
+        <v>0.2236451085738083</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>42650</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31679</v>
+        <v>30453</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58021</v>
+        <v>58025</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0380265243681805</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02824474938736273</v>
+        <v>0.02715169347618725</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05173108577662353</v>
+        <v>0.05173427759622344</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>55</v>
@@ -1838,19 +1838,19 @@
         <v>59898</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>46289</v>
+        <v>45930</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77931</v>
+        <v>76880</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06026327314603402</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04657077903196982</v>
+        <v>0.04620987280365003</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07840610878088185</v>
+        <v>0.0773489277561672</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>94</v>
@@ -1859,19 +1859,19 @@
         <v>102548</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>83199</v>
+        <v>83112</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>124062</v>
+        <v>124081</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04847399840559385</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03932778098515104</v>
+        <v>0.0392864972961483</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05864342338001874</v>
+        <v>0.05865216100542239</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>11332</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4697</v>
+        <v>4529</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21819</v>
+        <v>21123</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01010390943333476</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00418781778821839</v>
+        <v>0.004038053654225246</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01945315920863976</v>
+        <v>0.01883265375857434</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1909,19 +1909,19 @@
         <v>12175</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5889</v>
+        <v>5167</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22968</v>
+        <v>22844</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01224908994860584</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005925040813273967</v>
+        <v>0.005198658184853379</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02310789878421853</v>
+        <v>0.02298344340543084</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -1930,19 +1930,19 @@
         <v>23507</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13647</v>
+        <v>14609</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37228</v>
+        <v>37851</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01111177789300726</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006450702638349054</v>
+        <v>0.006905395390545982</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01759742612585436</v>
+        <v>0.01789205919936526</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>204188</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>184075</v>
+        <v>182422</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>225216</v>
+        <v>224591</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4565915453360326</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4116167566485964</v>
+        <v>0.4079194496665131</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5036142589645619</v>
+        <v>0.5022153360552073</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>177</v>
@@ -2055,19 +2055,19 @@
         <v>175709</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>157606</v>
+        <v>156063</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>194034</v>
+        <v>194306</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5150376832757648</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.461973839291402</v>
+        <v>0.4574498040423292</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5687521622812626</v>
+        <v>0.5695478543827505</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>374</v>
@@ -2076,19 +2076,19 @@
         <v>379897</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>352706</v>
+        <v>352630</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>406419</v>
+        <v>409674</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4818838380801203</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4473929342539862</v>
+        <v>0.4472963333363752</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5155256397868975</v>
+        <v>0.5196546350253024</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>141335</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>122786</v>
+        <v>123726</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>161415</v>
+        <v>161810</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.316044996066251</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2745652958559804</v>
+        <v>0.2766689376304542</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3609463801368277</v>
+        <v>0.3618281693612604</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>100</v>
@@ -2126,19 +2126,19 @@
         <v>101792</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>85186</v>
+        <v>86483</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>119205</v>
+        <v>121516</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2983723019249284</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.24969549947547</v>
+        <v>0.2534976196664287</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3494122842772448</v>
+        <v>0.3561861963825735</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>240</v>
@@ -2147,19 +2147,19 @@
         <v>243127</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>219242</v>
+        <v>217411</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>269635</v>
+        <v>269155</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3083972203610373</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2780996065364518</v>
+        <v>0.2757766217737719</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3420213314468641</v>
+        <v>0.3414126113345599</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>77003</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>60896</v>
+        <v>61703</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>94177</v>
+        <v>93790</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.17218968848041</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1361727172050832</v>
+        <v>0.1379758759779376</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2105928460125308</v>
+        <v>0.2097282105224102</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>42</v>
@@ -2197,19 +2197,19 @@
         <v>43277</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31995</v>
+        <v>32356</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56429</v>
+        <v>56232</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1268544393743723</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09378350918114726</v>
+        <v>0.09484265311255437</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1654057104661433</v>
+        <v>0.1648255754765124</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>117</v>
@@ -2218,19 +2218,19 @@
         <v>120281</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>101859</v>
+        <v>99545</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>142293</v>
+        <v>140864</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1525710715377744</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1292035062801715</v>
+        <v>0.1262682043116638</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1804929469798952</v>
+        <v>0.1786804113213038</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>20097</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13291</v>
+        <v>12774</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31093</v>
+        <v>31489</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04493858914880332</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02971955925664616</v>
+        <v>0.02856356730630361</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06952809011306159</v>
+        <v>0.070414492947665</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -2268,19 +2268,19 @@
         <v>16111</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8838</v>
+        <v>9884</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24284</v>
+        <v>25731</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04722341149297752</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0259046168663824</v>
+        <v>0.02897253926088795</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07118177859252837</v>
+        <v>0.07542305877657575</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>36</v>
@@ -2289,19 +2289,19 @@
         <v>36207</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>25558</v>
+        <v>26392</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50699</v>
+        <v>50383</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0459273353283486</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03241950929758924</v>
+        <v>0.03347706980026093</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.064310052370364</v>
+        <v>0.06390815149699225</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>4577</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11630</v>
+        <v>11332</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01023518096850302</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002411022002135458</v>
+        <v>0.002393766496795099</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02600723512557088</v>
+        <v>0.02534090622263578</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2339,19 +2339,19 @@
         <v>4269</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1017</v>
+        <v>1499</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9742</v>
+        <v>11591</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01251216393195696</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002980469209285136</v>
+        <v>0.00439345441600962</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02855601900043269</v>
+        <v>0.03397550684658511</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -2360,19 +2360,19 @@
         <v>8846</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4231</v>
+        <v>3839</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17988</v>
+        <v>17686</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01122053469271937</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005367034614343811</v>
+        <v>0.004869572222408812</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02281757883252464</v>
+        <v>0.02243340305817401</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>1452949</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1395446</v>
+        <v>1393339</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1509370</v>
+        <v>1507546</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.449713930814385</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4319157050536806</v>
+        <v>0.4312634697486431</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4671772701042603</v>
+        <v>0.4666126573040021</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1381</v>
@@ -2485,19 +2485,19 @@
         <v>1387830</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1331811</v>
+        <v>1329690</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1447280</v>
+        <v>1441973</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.418655639504219</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4017565851353115</v>
+        <v>0.4011170119741765</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4365893604926536</v>
+        <v>0.4349883816101649</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2799</v>
@@ -2506,19 +2506,19 @@
         <v>2840779</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2762708</v>
+        <v>2758074</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2922782</v>
+        <v>2920604</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4339851739090194</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4220582226805392</v>
+        <v>0.421350309539712</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4465126885528163</v>
+        <v>0.4461800141186408</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>899942</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>844966</v>
+        <v>850626</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>949213</v>
+        <v>952343</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2785483522048897</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2615323309621847</v>
+        <v>0.2632841058200302</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2937987166464426</v>
+        <v>0.2947672859349302</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>926</v>
@@ -2556,19 +2556,19 @@
         <v>943620</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>889428</v>
+        <v>889492</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>996360</v>
+        <v>991984</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2846543752368045</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2683065340434728</v>
+        <v>0.2683258068576705</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3005638256903833</v>
+        <v>0.2992436889751663</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1818</v>
@@ -2577,19 +2577,19 @@
         <v>1843563</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1775782</v>
+        <v>1769015</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1924485</v>
+        <v>1916636</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2816406070545992</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2712857471529556</v>
+        <v>0.27025197434208</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.294003061857955</v>
+        <v>0.2928040875927473</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>651686</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>611209</v>
+        <v>606761</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>698167</v>
+        <v>693422</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.201708497618754</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1891801378187953</v>
+        <v>0.1878034563511047</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2160953315709019</v>
+        <v>0.2146265923464274</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>614</v>
@@ -2627,19 +2627,19 @@
         <v>639238</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>596019</v>
+        <v>592596</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>688695</v>
+        <v>684545</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1928338826173597</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1797961658133456</v>
+        <v>0.1787637457951481</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2077529467069198</v>
+        <v>0.2065012737765447</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1266</v>
@@ -2648,19 +2648,19 @@
         <v>1290924</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1222285</v>
+        <v>1227680</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1351063</v>
+        <v>1357524</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.197214153078301</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1867282016903911</v>
+        <v>0.1875524495072414</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2064015355223978</v>
+        <v>0.2073885628589343</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>175615</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>150477</v>
+        <v>151061</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>205551</v>
+        <v>203372</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05435610452935004</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04657523634952927</v>
+        <v>0.04675608684351842</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06362168361754306</v>
+        <v>0.06294725524717196</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>263</v>
@@ -2698,19 +2698,19 @@
         <v>282511</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>249760</v>
+        <v>251453</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>317682</v>
+        <v>315925</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08522274945662497</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07534311968025229</v>
+        <v>0.07585371384020284</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09583246845534364</v>
+        <v>0.0953026083157154</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>430</v>
@@ -2719,19 +2719,19 @@
         <v>458126</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>416088</v>
+        <v>418018</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>498296</v>
+        <v>500826</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06998780653436129</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06356572132578599</v>
+        <v>0.06386055486571049</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07612461842026463</v>
+        <v>0.07651103265660068</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>50637</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>36950</v>
+        <v>35119</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>69603</v>
+        <v>67769</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01567311483262126</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01143659857127848</v>
+        <v>0.01086989035140311</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02154335487536957</v>
+        <v>0.02097564156874807</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>50</v>
@@ -2769,19 +2769,19 @@
         <v>61769</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>47673</v>
+        <v>46867</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>81748</v>
+        <v>82505</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01863335318499193</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01438102554506987</v>
+        <v>0.01413792493534449</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02466038452558878</v>
+        <v>0.0248885551240258</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>89</v>
@@ -2790,19 +2790,19 @@
         <v>112406</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>90599</v>
+        <v>89220</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>138123</v>
+        <v>137614</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01717225942371917</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01384079141188627</v>
+        <v>0.01363011554417675</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0211009847963026</v>
+        <v>0.02102331703030667</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>524971</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>492509</v>
+        <v>492515</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>555567</v>
+        <v>559095</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5048578620260676</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4736391480645737</v>
+        <v>0.4736452982215019</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5342810404889552</v>
+        <v>0.5376740124379461</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>498</v>
@@ -3155,19 +3155,19 @@
         <v>540831</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>507063</v>
+        <v>505202</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>573415</v>
+        <v>576412</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4833905513551847</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.453208757995229</v>
+        <v>0.45154570643579</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5125132089579444</v>
+        <v>0.5151925120609127</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>991</v>
@@ -3176,19 +3176,19 @@
         <v>1065802</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1020803</v>
+        <v>1014738</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1113914</v>
+        <v>1110354</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4937314457129585</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4728855394442969</v>
+        <v>0.4700760569031776</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5160190528191985</v>
+        <v>0.514370009662885</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>242792</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>216771</v>
+        <v>214552</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>273644</v>
+        <v>270824</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2334897881925631</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2084660780100321</v>
+        <v>0.2063319125046352</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2631595247293793</v>
+        <v>0.2604473556899791</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>260</v>
@@ -3226,19 +3226,19 @@
         <v>278475</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>251052</v>
+        <v>250281</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308411</v>
+        <v>308360</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2488984619894921</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.224388033189527</v>
+        <v>0.2236986340517664</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2756549675454366</v>
+        <v>0.2756098844416113</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>485</v>
@@ -3247,19 +3247,19 @@
         <v>521267</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>481147</v>
+        <v>478538</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>564854</v>
+        <v>562104</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2414760386421857</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2228905445599652</v>
+        <v>0.2216822020088305</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2616676748922427</v>
+        <v>0.2603937739852654</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>191915</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>168341</v>
+        <v>165226</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>217781</v>
+        <v>218654</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1845619915511104</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1618916841821241</v>
+        <v>0.1588959581535035</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2094366479155683</v>
+        <v>0.2102766561430051</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>171</v>
@@ -3297,19 +3297,19 @@
         <v>187988</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>162932</v>
+        <v>164436</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>215050</v>
+        <v>215805</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1680224445043451</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.145627384239907</v>
+        <v>0.1469713616999809</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1922099846854097</v>
+        <v>0.1928846605292864</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>351</v>
@@ -3318,19 +3318,19 @@
         <v>379903</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>348043</v>
+        <v>345045</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>416419</v>
+        <v>415720</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1759896142797381</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1612306224560247</v>
+        <v>0.1598415065655051</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1929056729223573</v>
+        <v>0.1925817998244368</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>66620</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51559</v>
+        <v>52485</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83244</v>
+        <v>84506</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06406733712687111</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04958322143690926</v>
+        <v>0.05047390245124696</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08005478112621385</v>
+        <v>0.08126831565966799</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -3368,19 +3368,19 @@
         <v>92408</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74735</v>
+        <v>73828</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>113941</v>
+        <v>112308</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08259342738383195</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06679714934038183</v>
+        <v>0.06598727064104884</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1018396032650132</v>
+        <v>0.1003798851736371</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>148</v>
@@ -3389,19 +3389,19 @@
         <v>159028</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>135512</v>
+        <v>134700</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>186718</v>
+        <v>185934</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07366933134092803</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06277566126281202</v>
+        <v>0.06239951298341093</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08649708425319425</v>
+        <v>0.08613367591470603</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>13542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7038</v>
+        <v>7654</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23707</v>
+        <v>24311</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01302302110338778</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006768592417435583</v>
+        <v>0.007360400301064479</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02279900201279164</v>
+        <v>0.0233794068494199</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -3439,19 +3439,19 @@
         <v>19127</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11860</v>
+        <v>12061</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29641</v>
+        <v>31635</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0170951147671462</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01060057922765865</v>
+        <v>0.01077974546247899</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02649262919557112</v>
+        <v>0.02827468042616617</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -3460,19 +3460,19 @@
         <v>32668</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21594</v>
+        <v>22370</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>46806</v>
+        <v>46902</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01513357002418962</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0100035634063532</v>
+        <v>0.0103629545988201</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02168291267946567</v>
+        <v>0.02172709081302835</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>531955</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>500479</v>
+        <v>501232</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>565512</v>
+        <v>567157</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5455185796216593</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5132405799124555</v>
+        <v>0.5140122426249305</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5799310677214989</v>
+        <v>0.581618095203654</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>509</v>
@@ -3585,19 +3585,19 @@
         <v>545099</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>508459</v>
+        <v>511793</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>577073</v>
+        <v>577493</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4981434657373556</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4646597220561802</v>
+        <v>0.4677063466325446</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5273623883020032</v>
+        <v>0.5277466374375551</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1022</v>
@@ -3606,19 +3606,19 @@
         <v>1077055</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1022099</v>
+        <v>1032935</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1120465</v>
+        <v>1121277</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5204674368392401</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4939109640874295</v>
+        <v>0.4991473833973152</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5414444522677435</v>
+        <v>0.5418370366056084</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>227392</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>201813</v>
+        <v>199250</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>255316</v>
+        <v>253195</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2331905277924533</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2069586661615346</v>
+        <v>0.2043306648337044</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2618265107609213</v>
+        <v>0.2596512959935952</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>281</v>
@@ -3656,19 +3656,19 @@
         <v>299873</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>273183</v>
+        <v>271059</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>331085</v>
+        <v>330516</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2740414703358495</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2496503899263229</v>
+        <v>0.2477094058419039</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3025645299138331</v>
+        <v>0.3020444543549562</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>494</v>
@@ -3677,19 +3677,19 @@
         <v>527266</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>487260</v>
+        <v>480074</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>571716</v>
+        <v>565243</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2547918013418997</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2354594536973994</v>
+        <v>0.2319872342221882</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2762713459383817</v>
+        <v>0.273143595472907</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>160279</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>134957</v>
+        <v>136330</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>186540</v>
+        <v>185481</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1643656673934227</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1383980469719562</v>
+        <v>0.1398059236945933</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1912967751379074</v>
+        <v>0.1902108118105743</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>147</v>
@@ -3727,19 +3727,19 @@
         <v>156284</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>133077</v>
+        <v>134389</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>181303</v>
+        <v>182266</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1428213426454847</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1216130331541481</v>
+        <v>0.1228127941641524</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1656851921742995</v>
+        <v>0.1665648871516857</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>294</v>
@@ -3748,19 +3748,19 @@
         <v>316563</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>285048</v>
+        <v>284992</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>352409</v>
+        <v>352801</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1529734002058557</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1377444180075811</v>
+        <v>0.1377174008919226</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1702952441598295</v>
+        <v>0.1704847751173491</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>42754</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30481</v>
+        <v>31519</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58851</v>
+        <v>59182</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04384367964462998</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03125807890331314</v>
+        <v>0.0323227228728346</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06035192141669191</v>
+        <v>0.06069130533171721</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -3798,19 +3798,19 @@
         <v>78092</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59914</v>
+        <v>62189</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96096</v>
+        <v>98256</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07136472208611826</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05475283649622181</v>
+        <v>0.05683158430482282</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08781839775272321</v>
+        <v>0.08979186673753112</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>109</v>
@@ -3819,19 +3819,19 @@
         <v>120845</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>98731</v>
+        <v>100299</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143312</v>
+        <v>145052</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05839633202255204</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04770980534955578</v>
+        <v>0.04846778163677265</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06925288821500021</v>
+        <v>0.07009374449373329</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>12756</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6523</v>
+        <v>6552</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24065</v>
+        <v>23508</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01308154554783478</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006689237872703611</v>
+        <v>0.006719387746667825</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02467818765635738</v>
+        <v>0.02410695570842301</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -3869,19 +3869,19 @@
         <v>14914</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7489</v>
+        <v>8554</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25622</v>
+        <v>26722</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01362899919519192</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006843697106531653</v>
+        <v>0.007816742804952504</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02341518060398436</v>
+        <v>0.02442030271789</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -3890,19 +3890,19 @@
         <v>27670</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17238</v>
+        <v>17322</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41084</v>
+        <v>43084</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01337102959045243</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008330170403094111</v>
+        <v>0.008370506613979763</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01985334199876417</v>
+        <v>0.02081933750572465</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>510975</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>479113</v>
+        <v>479698</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>540921</v>
+        <v>539749</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5772983962798552</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5413007847491035</v>
+        <v>0.5419610296981892</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6111302559351012</v>
+        <v>0.6098071953847357</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>480</v>
@@ -4015,19 +4015,19 @@
         <v>504139</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>472814</v>
+        <v>478958</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>534803</v>
+        <v>536331</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5756352544058437</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5398677744287238</v>
+        <v>0.5468834905227417</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6106478931263117</v>
+        <v>0.6123922591163024</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>958</v>
@@ -4036,19 +4036,19 @@
         <v>1015115</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>974357</v>
+        <v>967786</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1055427</v>
+        <v>1061030</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5764712262928211</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5533255024670252</v>
+        <v>0.5495937503834311</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5993641753025841</v>
+        <v>0.6025462558357174</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>231448</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>204271</v>
+        <v>207062</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>257308</v>
+        <v>260639</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2614895970882414</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.230784699951269</v>
+        <v>0.2339378777117531</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2907055526567375</v>
+        <v>0.2944696389138884</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>218</v>
@@ -4086,19 +4086,19 @@
         <v>234393</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>208469</v>
+        <v>207348</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>261247</v>
+        <v>261142</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2676339909552926</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.238033877365462</v>
+        <v>0.2367542647459832</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2982968221867781</v>
+        <v>0.2981764753938247</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>439</v>
@@ -4107,19 +4107,19 @@
         <v>465841</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>425736</v>
+        <v>426636</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>502661</v>
+        <v>504369</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2645455349338097</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2417704759670204</v>
+        <v>0.2422815873374063</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2854551008124207</v>
+        <v>0.2864252782234354</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>102145</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>83672</v>
+        <v>83531</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>123592</v>
+        <v>124341</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1154036433187539</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09453285634972265</v>
+        <v>0.09437251795942694</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1396333300511854</v>
+        <v>0.1404803179177311</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>87</v>
@@ -4157,19 +4157,19 @@
         <v>97015</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>77900</v>
+        <v>77834</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>117661</v>
+        <v>117427</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1107735017658091</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08894793869778675</v>
+        <v>0.08887214647637132</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1343476904822729</v>
+        <v>0.1340804864955374</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>181</v>
@@ -4178,19 +4178,19 @@
         <v>199160</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>171567</v>
+        <v>172379</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>227569</v>
+        <v>228944</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1131008246668023</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09743079660836849</v>
+        <v>0.09789168774713002</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1292336864410123</v>
+        <v>0.1300143464251751</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>33484</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23236</v>
+        <v>23200</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48624</v>
+        <v>47843</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03782969745688675</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02625197083246753</v>
+        <v>0.02621166329978137</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05493561930342399</v>
+        <v>0.05405322277575339</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -4228,19 +4228,19 @@
         <v>32500</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22025</v>
+        <v>22099</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45798</v>
+        <v>46522</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03710896744940503</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02514850844004018</v>
+        <v>0.02523338153258305</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05229320316636017</v>
+        <v>0.05311947466228546</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -4249,19 +4249,19 @@
         <v>65984</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51125</v>
+        <v>50196</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83901</v>
+        <v>83537</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03747123962459985</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02903329860948357</v>
+        <v>0.02850545110838752</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04764641006291331</v>
+        <v>0.0474397022697207</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>7062</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2992</v>
+        <v>3010</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13482</v>
+        <v>14257</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007978665856262711</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003380616347700629</v>
+        <v>0.00340019692318053</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0152314580472649</v>
+        <v>0.01610790247629367</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -4299,19 +4299,19 @@
         <v>7749</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3303</v>
+        <v>3224</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15353</v>
+        <v>15507</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008848285423649507</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003771624767930001</v>
+        <v>0.003681336122228315</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01753003773990282</v>
+        <v>0.01770607657240474</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -4320,19 +4320,19 @@
         <v>14811</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8516</v>
+        <v>8599</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24178</v>
+        <v>24571</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008411174481966979</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004836008695525298</v>
+        <v>0.004883405514574022</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01373032072154621</v>
+        <v>0.01395352530453004</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>307631</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>283036</v>
+        <v>285538</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>329094</v>
+        <v>330976</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6182603437327997</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5688301384315239</v>
+        <v>0.5738582374406765</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.661395057800393</v>
+        <v>0.66517800670685</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>246</v>
@@ -4445,19 +4445,19 @@
         <v>266844</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>243782</v>
+        <v>243949</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>287276</v>
+        <v>289261</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.59075959187588</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5397028320259236</v>
+        <v>0.5400737828642336</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6359948154463537</v>
+        <v>0.6403897085360573</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>532</v>
@@ -4466,19 +4466,19 @@
         <v>574475</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>542496</v>
+        <v>544568</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>608383</v>
+        <v>608184</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.605174534532411</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.571486572573818</v>
+        <v>0.5736694612989195</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6408944473208785</v>
+        <v>0.6406857621779253</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>120747</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>102076</v>
+        <v>101583</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>142672</v>
+        <v>140873</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2426704515439411</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2051475432548767</v>
+        <v>0.2041560038935032</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2867347821891034</v>
+        <v>0.2831195567049187</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>103</v>
@@ -4516,19 +4516,19 @@
         <v>114128</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>95999</v>
+        <v>95600</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>133507</v>
+        <v>133930</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2526662703594097</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2125297812584865</v>
+        <v>0.2116465962404513</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2955692052397896</v>
+        <v>0.2965049848250187</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>214</v>
@@ -4537,19 +4537,19 @@
         <v>234875</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>205660</v>
+        <v>208315</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>261627</v>
+        <v>263036</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2474268079701733</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2166506327629444</v>
+        <v>0.2194476012938124</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2756083038465913</v>
+        <v>0.2770928883002935</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>40190</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28364</v>
+        <v>29267</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53670</v>
+        <v>56108</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08077171041507046</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05700346815637534</v>
+        <v>0.05881876799154547</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1078636394471283</v>
+        <v>0.1127620273472592</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>31</v>
@@ -4587,19 +4587,19 @@
         <v>33965</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23296</v>
+        <v>23284</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45667</v>
+        <v>47124</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07519474277329839</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05157363730675107</v>
+        <v>0.05154823412842511</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1011014416903559</v>
+        <v>0.1043261108228835</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>67</v>
@@ -4608,19 +4608,19 @@
         <v>74155</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>58336</v>
+        <v>57757</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>94823</v>
+        <v>93428</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07811799626002972</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06145332540688478</v>
+        <v>0.06084370645811113</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09989023145958228</v>
+        <v>0.0984207208951121</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>24892</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15003</v>
+        <v>15293</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38997</v>
+        <v>39375</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05002571058746196</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03015288915788736</v>
+        <v>0.03073592240669702</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07837343022476669</v>
+        <v>0.07913339417258661</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -4658,19 +4658,19 @@
         <v>27529</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17782</v>
+        <v>18074</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40217</v>
+        <v>41456</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0609466821759932</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0393664586725645</v>
+        <v>0.04001271615750061</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08903500840011654</v>
+        <v>0.09177871328925542</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -4679,19 +4679,19 @@
         <v>52421</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36971</v>
+        <v>37114</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70066</v>
+        <v>69792</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05522228671141351</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03894715385280263</v>
+        <v>0.03909694324819014</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07381082809275261</v>
+        <v>0.07352167396442548</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>4116</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10065</v>
+        <v>10216</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008271783720726726</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002081394082897189</v>
+        <v>0.002072496558522103</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02022808025464909</v>
+        <v>0.02053139462927248</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -4729,19 +4729,19 @@
         <v>9229</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4635</v>
+        <v>4051</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17780</v>
+        <v>17338</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02043271281541873</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01026070098412272</v>
+        <v>0.008968203396002426</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03936212204474054</v>
+        <v>0.03838443778806003</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -4750,19 +4750,19 @@
         <v>13345</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7337</v>
+        <v>6483</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23523</v>
+        <v>21746</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01405837452597242</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007729143318113773</v>
+        <v>0.006829082163025451</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0247801346699048</v>
+        <v>0.02290766899121642</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>1875533</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1814883</v>
+        <v>1816096</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1934431</v>
+        <v>1936245</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5520061667636147</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5341556707498141</v>
+        <v>0.5345129201620555</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5693411859497468</v>
+        <v>0.5698748816380256</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1733</v>
@@ -4875,19 +4875,19 @@
         <v>1856914</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1789246</v>
+        <v>1792732</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1918484</v>
+        <v>1916958</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5244654977286997</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5053533939186752</v>
+        <v>0.506338070282765</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5418555048581661</v>
+        <v>0.5414244199496101</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3503</v>
@@ -4896,19 +4896,19 @@
         <v>3732446</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3653055</v>
+        <v>3652066</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3820407</v>
+        <v>3826114</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5379521858657196</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5265095949379613</v>
+        <v>0.5263670458788876</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5506298425743665</v>
+        <v>0.5514524041600244</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>822380</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>771817</v>
+        <v>764055</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>875107</v>
+        <v>872026</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2420425127114264</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2271610256511712</v>
+        <v>0.22487634305676</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2575612937975517</v>
+        <v>0.2566544088225825</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>862</v>
@@ -4946,19 +4946,19 @@
         <v>926869</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>877617</v>
+        <v>871099</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>983152</v>
+        <v>981612</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.261784320011214</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2478735981423736</v>
+        <v>0.2460326514419631</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2776807242312509</v>
+        <v>0.277245771961042</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1632</v>
@@ -4967,19 +4967,19 @@
         <v>1749249</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1678274</v>
+        <v>1672610</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1820980</v>
+        <v>1822167</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2521167408403582</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.241887209663917</v>
+        <v>0.241070860113434</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2624553386923261</v>
+        <v>0.2626262862026531</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>494529</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>454491</v>
+        <v>453164</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>538362</v>
+        <v>539875</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1455497060557495</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.133765558932301</v>
+        <v>0.1333751729022596</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1584506167984168</v>
+        <v>0.1588958609569347</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>436</v>
@@ -5017,19 +5017,19 @@
         <v>475253</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>435369</v>
+        <v>437523</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>521303</v>
+        <v>523629</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1342300128474354</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1229653585394088</v>
+        <v>0.1235736799306018</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1472365466274586</v>
+        <v>0.1478933758935796</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>893</v>
@@ -5038,19 +5038,19 @@
         <v>969782</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>907496</v>
+        <v>909877</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1028896</v>
+        <v>1029233</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1397732758638034</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1307961321258034</v>
+        <v>0.1311393246333849</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1482933899199928</v>
+        <v>0.1483419574640152</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>167748</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>138852</v>
+        <v>142195</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>194409</v>
+        <v>197537</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0493716858366124</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04086674995321691</v>
+        <v>0.04185072952483277</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05721841959504927</v>
+        <v>0.0581389906766045</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>207</v>
@@ -5088,19 +5088,19 @@
         <v>230529</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>202286</v>
+        <v>201932</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>260513</v>
+        <v>262946</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06511043121003195</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05713364769396123</v>
+        <v>0.05703357918681282</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07357914532215419</v>
+        <v>0.074266422557423</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>358</v>
@@ -5109,19 +5109,19 @@
         <v>398277</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>355491</v>
+        <v>354690</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>440706</v>
+        <v>437169</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05740315473645848</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05123639533992808</v>
+        <v>0.05112100852208144</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0635183454678085</v>
+        <v>0.06300849644842742</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>37476</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>26403</v>
+        <v>26164</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>52330</v>
+        <v>52143</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01102992863259696</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007770846556282274</v>
+        <v>0.007700515986089397</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.015401660474077</v>
+        <v>0.01534672924466138</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>44</v>
@@ -5159,19 +5159,19 @@
         <v>51019</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>36934</v>
+        <v>37728</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>67115</v>
+        <v>68833</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01440973820261901</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01043151442788586</v>
+        <v>0.01065576512540883</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01895603095605534</v>
+        <v>0.01944103696001522</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>78</v>
@@ -5180,19 +5180,19 @@
         <v>88495</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>69297</v>
+        <v>69035</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>109424</v>
+        <v>108545</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01275464269366042</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009987699818777129</v>
+        <v>0.009949961726828445</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0157711577959079</v>
+        <v>0.01564448589621164</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>439974</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>407713</v>
+        <v>404045</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>473549</v>
+        <v>471414</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3908058166343273</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3621500370319897</v>
+        <v>0.3588917635794923</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.420628523549359</v>
+        <v>0.4187321288361822</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>450</v>
@@ -5545,19 +5545,19 @@
         <v>469633</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>432220</v>
+        <v>436208</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>504229</v>
+        <v>505261</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.373440001598176</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3436903164159245</v>
+        <v>0.3468616132655137</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.400949720776622</v>
+        <v>0.401770508135107</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>861</v>
@@ -5566,19 +5566,19 @@
         <v>909607</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>863845</v>
+        <v>864636</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>962102</v>
+        <v>956386</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3816428490570651</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3624426187111393</v>
+        <v>0.362774409028858</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4036682145968331</v>
+        <v>0.4012698806180003</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>417886</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>387063</v>
+        <v>384743</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>450863</v>
+        <v>451533</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3711857598610106</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3438075712448979</v>
+        <v>0.3417471964965513</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4004780702763251</v>
+        <v>0.4010727219041154</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>461</v>
@@ -5616,19 +5616,19 @@
         <v>485064</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>450258</v>
+        <v>451762</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>522897</v>
+        <v>522572</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3857100387442634</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3580333983822786</v>
+        <v>0.3592296110372323</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4157944535221413</v>
+        <v>0.4155354369572403</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>862</v>
@@ -5637,19 +5637,19 @@
         <v>902949</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>859192</v>
+        <v>853374</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>950422</v>
+        <v>950346</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3788494080234094</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3604900713221427</v>
+        <v>0.3580492398664908</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3987674445723082</v>
+        <v>0.398735528594959</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>180788</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>155670</v>
+        <v>156340</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>208049</v>
+        <v>207513</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1605841968974258</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1382736251081145</v>
+        <v>0.1388684236946549</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.184798931394348</v>
+        <v>0.1843231821241099</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>188</v>
@@ -5687,19 +5687,19 @@
         <v>204219</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>176127</v>
+        <v>175304</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>229325</v>
+        <v>229863</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1623895228141304</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1400513399159264</v>
+        <v>0.139396922386376</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1823529713793428</v>
+        <v>0.1827808113885621</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>358</v>
@@ -5708,19 +5708,19 @@
         <v>385007</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>347407</v>
+        <v>349526</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>420825</v>
+        <v>422895</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1615367662301475</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1457611488916289</v>
+        <v>0.1466503833299886</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1765651717978843</v>
+        <v>0.1774335445462121</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>75319</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59252</v>
+        <v>59598</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93848</v>
+        <v>93126</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0669016738541469</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05263048350912265</v>
+        <v>0.05293759832291055</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08336028096124432</v>
+        <v>0.08271883303615454</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -5758,19 +5758,19 @@
         <v>78005</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62461</v>
+        <v>61590</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97562</v>
+        <v>97999</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06202779516580486</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04966728384367668</v>
+        <v>0.04897480812464416</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07757855393673298</v>
+        <v>0.07792618688379707</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>139</v>
@@ -5779,19 +5779,19 @@
         <v>153324</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>128562</v>
+        <v>130445</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>178053</v>
+        <v>181666</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0643300011567343</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05394054263804013</v>
+        <v>0.0547305263395048</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07470566547764795</v>
+        <v>0.07622135519032178</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>11846</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6318</v>
+        <v>5413</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20227</v>
+        <v>20057</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01052255275308935</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005611563668476685</v>
+        <v>0.004807786320696966</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01796645367706823</v>
+        <v>0.01781546905128008</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -5829,19 +5829,19 @@
         <v>20665</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13108</v>
+        <v>12461</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31715</v>
+        <v>30743</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01643264167762541</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01042309050656928</v>
+        <v>0.009908739747566975</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02521928389695111</v>
+        <v>0.02444597424581733</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -5850,19 +5850,19 @@
         <v>32512</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>22625</v>
+        <v>22593</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>48524</v>
+        <v>46641</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01364097553264363</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009492785209865384</v>
+        <v>0.009479334043277112</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02035914292723919</v>
+        <v>0.01956908532068498</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>364614</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>336749</v>
+        <v>335693</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>395688</v>
+        <v>398331</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.40181033766622</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3711024346057115</v>
+        <v>0.3699392009916288</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4360549638464496</v>
+        <v>0.4389672500869339</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>373</v>
@@ -5975,19 +5975,19 @@
         <v>392902</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>363278</v>
+        <v>361071</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>426386</v>
+        <v>425946</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3914688180213283</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3619532507452034</v>
+        <v>0.3597541722787938</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4248307526218477</v>
+        <v>0.42439300718019</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>725</v>
@@ -5996,19 +5996,19 @@
         <v>757516</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>714532</v>
+        <v>711964</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>803601</v>
+        <v>800714</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3963792065431899</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3738875052693988</v>
+        <v>0.3725439481134493</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4204941678099011</v>
+        <v>0.4189832949950135</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>356546</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>327717</v>
+        <v>326712</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>386021</v>
+        <v>385566</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3929196812076709</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3611490095779802</v>
+        <v>0.3600414779357171</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.425401019580935</v>
+        <v>0.424899353709337</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>380</v>
@@ -6046,19 +6046,19 @@
         <v>398843</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>368115</v>
+        <v>367082</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>432371</v>
+        <v>431372</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3973887906651793</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3667731072568319</v>
+        <v>0.3657434596814441</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4307943908207406</v>
+        <v>0.4297989098369921</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>729</v>
@@ -6067,19 +6067,19 @@
         <v>755390</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>713582</v>
+        <v>713469</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>796201</v>
+        <v>800751</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3952667559414013</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3733902115583091</v>
+        <v>0.373331550868192</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.41662192062889</v>
+        <v>0.4190028722798517</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>146506</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>126000</v>
+        <v>125719</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>167986</v>
+        <v>170912</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.161452215411802</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1388541336709488</v>
+        <v>0.1385444288845979</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1851236927729049</v>
+        <v>0.1883478745102285</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>155</v>
@@ -6117,19 +6117,19 @@
         <v>167463</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>144292</v>
+        <v>144119</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>190873</v>
+        <v>194756</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1668525800346734</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1437657582205757</v>
+        <v>0.1435932232519627</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1901773237027042</v>
+        <v>0.194045546797129</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>299</v>
@@ -6138,19 +6138,19 @@
         <v>313970</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>284194</v>
+        <v>280342</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>347508</v>
+        <v>347660</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1642883641970993</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.148707908963879</v>
+        <v>0.1466926024541196</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1818377553257871</v>
+        <v>0.1819171393270026</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>33867</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24084</v>
+        <v>23067</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47949</v>
+        <v>46800</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03732162126271203</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02654074142772061</v>
+        <v>0.02542044867189123</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05284103458704347</v>
+        <v>0.05157472988342326</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -6188,19 +6188,19 @@
         <v>40481</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28310</v>
+        <v>29186</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54582</v>
+        <v>55866</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04033314460397759</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02820633023130238</v>
+        <v>0.02907910858831649</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05438276499188668</v>
+        <v>0.05566193504087</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -6209,19 +6209,19 @@
         <v>74347</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57972</v>
+        <v>58324</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94325</v>
+        <v>93804</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03890320488950118</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03033463511145724</v>
+        <v>0.03051867990535279</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04935679270565641</v>
+        <v>0.04908402955688358</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>5895</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1977</v>
+        <v>2012</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14213</v>
+        <v>13746</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006496144451595006</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002178459662738629</v>
+        <v>0.002217508419617793</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01566243198417948</v>
+        <v>0.01514803325666237</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -6259,19 +6259,19 @@
         <v>3971</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9906</v>
+        <v>10466</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003956666674841501</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0009991636448504963</v>
+        <v>0.0009958023659947942</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009869793309548795</v>
+        <v>0.01042774311302307</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -6280,19 +6280,19 @@
         <v>9866</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4835</v>
+        <v>4751</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18338</v>
+        <v>18624</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005162468428808336</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002529924428768844</v>
+        <v>0.002486174073762442</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009595598980142138</v>
+        <v>0.009745131897285026</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>361402</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>333087</v>
+        <v>334106</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>391010</v>
+        <v>390550</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.439750018027353</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4052966070154877</v>
+        <v>0.4065358354161293</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4757763422878116</v>
+        <v>0.4752168287947876</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>310</v>
@@ -6405,19 +6405,19 @@
         <v>318842</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>293233</v>
+        <v>291325</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>344906</v>
+        <v>346370</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4135116698418541</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3802995040043468</v>
+        <v>0.3778248161728006</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4473146270015546</v>
+        <v>0.4492131790506669</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>657</v>
@@ -6426,19 +6426,19 @@
         <v>680244</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>641583</v>
+        <v>637439</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>717879</v>
+        <v>719750</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4270490462725048</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4027781823089288</v>
+        <v>0.4001766170971521</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4506754363732977</v>
+        <v>0.4518503035445985</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>322320</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>294841</v>
+        <v>293794</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>349284</v>
+        <v>351462</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3921954020216055</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3587595073252933</v>
+        <v>0.3574843577327636</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4250042853997547</v>
+        <v>0.4276549471491894</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>299</v>
@@ -6476,19 +6476,19 @@
         <v>316954</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>288411</v>
+        <v>289732</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>343451</v>
+        <v>344259</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4110632288044748</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3740448575708672</v>
+        <v>0.375758684269107</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.445427476290755</v>
+        <v>0.4464759688320297</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>608</v>
@@ -6497,19 +6497,19 @@
         <v>639274</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>602453</v>
+        <v>601423</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>679205</v>
+        <v>683787</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4013285888118103</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3782128358660209</v>
+        <v>0.3775659262028179</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4263963650329378</v>
+        <v>0.429273231052988</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>106326</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>87230</v>
+        <v>86850</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>127208</v>
+        <v>127956</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1293762928914911</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1061405119645206</v>
+        <v>0.1056776553464712</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1547850863036777</v>
+        <v>0.1556949907656007</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>95</v>
@@ -6547,19 +6547,19 @@
         <v>106481</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>88657</v>
+        <v>88253</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>128539</v>
+        <v>126284</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1380968750361604</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.114981440747453</v>
+        <v>0.1144563309491456</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1667047345551772</v>
+        <v>0.1637805196026589</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>194</v>
@@ -6568,19 +6568,19 @@
         <v>212807</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>185836</v>
+        <v>184704</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>240878</v>
+        <v>243794</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1335975901592243</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1166653485453836</v>
+        <v>0.1159550078461333</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1512201511092225</v>
+        <v>0.1530509910861856</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>27205</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18044</v>
+        <v>18356</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38173</v>
+        <v>37810</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0331021909865695</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0219554059641918</v>
+        <v>0.0223357693108345</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04644797125513706</v>
+        <v>0.04600722824141652</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -6618,19 +6618,19 @@
         <v>25650</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15850</v>
+        <v>16324</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39604</v>
+        <v>39094</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03326583228026223</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02055598274835371</v>
+        <v>0.02117113652018468</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05136347227378546</v>
+        <v>0.0507011575842356</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -6639,19 +6639,19 @@
         <v>52854</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38998</v>
+        <v>38888</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71528</v>
+        <v>69612</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03318140342153013</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02448272064802298</v>
+        <v>0.0244136233932242</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04490469785901734</v>
+        <v>0.04370131346405508</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>4583</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1249</v>
+        <v>1263</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11133</v>
+        <v>10974</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00557609607298089</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001519352183457368</v>
+        <v>0.001536911966827138</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0135461087401381</v>
+        <v>0.01335278604751726</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -6689,19 +6689,19 @@
         <v>3132</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9177</v>
+        <v>9422</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00406239403724848</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001150582932282359</v>
+        <v>0.001151212855842845</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01190171520392323</v>
+        <v>0.01221999516394518</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -6710,19 +6710,19 @@
         <v>7715</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3004</v>
+        <v>3423</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14674</v>
+        <v>15720</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004843371334930539</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001885861954406996</v>
+        <v>0.002149054335156812</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009211953769448266</v>
+        <v>0.009868633997122457</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>275311</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>252472</v>
+        <v>253488</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>297873</v>
+        <v>299003</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5433407257986941</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4982669203071278</v>
+        <v>0.5002705810436163</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.587867319300037</v>
+        <v>0.5900981068957462</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>232</v>
@@ -6835,19 +6835,19 @@
         <v>244512</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>220191</v>
+        <v>220658</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>267617</v>
+        <v>266443</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.500266897988255</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4505073638319402</v>
+        <v>0.4514626422066927</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5475388038432401</v>
+        <v>0.5451376750860875</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>489</v>
@@ -6856,19 +6856,19 @@
         <v>519823</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>490058</v>
+        <v>488793</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>554739</v>
+        <v>555494</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5221918969015835</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4922910038396932</v>
+        <v>0.4910199529293154</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5572667772574842</v>
+        <v>0.5580254771861627</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>141241</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>121830</v>
+        <v>122032</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>164858</v>
+        <v>163795</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2787464035551161</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2404368791999331</v>
+        <v>0.2408355898449519</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3253565690023925</v>
+        <v>0.3232568158899452</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>142</v>
@@ -6906,19 +6906,19 @@
         <v>154481</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>132320</v>
+        <v>134663</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>174648</v>
+        <v>178894</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3160643196185542</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.270723307396499</v>
+        <v>0.2755185651814601</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3573262462952555</v>
+        <v>0.3660134564698201</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>275</v>
@@ -6927,19 +6927,19 @@
         <v>295722</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>267271</v>
+        <v>264759</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>326253</v>
+        <v>324063</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2970691359831618</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2684885670733832</v>
+        <v>0.2659658754949911</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3277391448067437</v>
+        <v>0.3255400119304604</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>71036</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>55592</v>
+        <v>56721</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>88637</v>
+        <v>90307</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1401932669724837</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1097145565128647</v>
+        <v>0.1119415401840578</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1749303569826303</v>
+        <v>0.1782245719653697</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>49</v>
@@ -6977,19 +6977,19 @@
         <v>52018</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>37646</v>
+        <v>39004</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>67592</v>
+        <v>67553</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1064278497883965</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07702225652037414</v>
+        <v>0.07980189938113233</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1382916742304038</v>
+        <v>0.1382115170318668</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>113</v>
@@ -6998,19 +6998,19 @@
         <v>123054</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>103824</v>
+        <v>102967</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>145649</v>
+        <v>145987</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1236147768088407</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1042971873375477</v>
+        <v>0.1034362866934155</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1463126377590837</v>
+        <v>0.1466518399509636</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>15291</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8426</v>
+        <v>8652</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24899</v>
+        <v>25475</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03017737751377397</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01662938424874134</v>
+        <v>0.01707430285214494</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04913869370116806</v>
+        <v>0.05027620746590238</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -7048,19 +7048,19 @@
         <v>35011</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24040</v>
+        <v>24579</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50254</v>
+        <v>49151</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07163244805552299</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04918526675128326</v>
+        <v>0.05028833173678354</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1028189836805936</v>
+        <v>0.100562960627878</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -7069,19 +7069,19 @@
         <v>50302</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37112</v>
+        <v>37473</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>65979</v>
+        <v>66950</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05053141239693848</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03728152931665357</v>
+        <v>0.03764372762318056</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06627930985622668</v>
+        <v>0.06725490436861026</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>3822</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1128</v>
+        <v>1215</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11806</v>
+        <v>11535</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007542226159932147</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002226669257175233</v>
+        <v>0.002398398270375466</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02329878572742903</v>
+        <v>0.02276403738953272</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9269</v>
+        <v>9134</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005608484549271338</v>
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.018964260657031</v>
+        <v>0.01868834170372017</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -7140,19 +7140,19 @@
         <v>6563</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2474</v>
+        <v>2321</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14954</v>
+        <v>14629</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006592777909475588</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002485147495959641</v>
+        <v>0.002331597118105475</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0150225660721814</v>
+        <v>0.01469573791510365</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>1441301</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1381813</v>
+        <v>1384018</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1496800</v>
+        <v>1502753</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4287320280286542</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4110365237405703</v>
+        <v>0.4116924592527901</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4452407860902291</v>
+        <v>0.4470114426185927</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1365</v>
@@ -7265,19 +7265,19 @@
         <v>1425888</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1372929</v>
+        <v>1375814</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1487003</v>
+        <v>1493308</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4049590536511804</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3899184696699351</v>
+        <v>0.3907377872358788</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4223158754423122</v>
+        <v>0.4241066640591496</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2732</v>
@@ -7286,19 +7286,19 @@
         <v>2867190</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2790308</v>
+        <v>2777799</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2957793</v>
+        <v>2951434</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4165704506403778</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4054004385442903</v>
+        <v>0.4035829237026695</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4297340794202448</v>
+        <v>0.4288101712923738</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>1237993</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1180183</v>
+        <v>1176162</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1299448</v>
+        <v>1288293</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.368255565189467</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3510593202363875</v>
+        <v>0.3498630373474354</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3865360828792159</v>
+        <v>0.3832177357010874</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1282</v>
@@ -7336,19 +7336,19 @@
         <v>1355341</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1293125</v>
+        <v>1299735</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1409079</v>
+        <v>1419423</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3849233559859258</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3672537247617542</v>
+        <v>0.3691308079379685</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4001851547197682</v>
+        <v>0.4031229733314061</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2474</v>
@@ -7357,19 +7357,19 @@
         <v>2593334</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2512377</v>
+        <v>2513667</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2672195</v>
+        <v>2677737</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.376782332788847</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3650201189878131</v>
+        <v>0.3652076194586838</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3882398714053835</v>
+        <v>0.3890451183904892</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>504656</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>462031</v>
+        <v>465359</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>545970</v>
+        <v>549792</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.150115862445859</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1374366855947139</v>
+        <v>0.1384265255651618</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.162405200192632</v>
+        <v>0.1635420002810577</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>487</v>
@@ -7407,19 +7407,19 @@
         <v>530181</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>486423</v>
+        <v>486124</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>577099</v>
+        <v>578688</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1505738829757453</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1381464262873838</v>
+        <v>0.1380615079201658</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1638988801702904</v>
+        <v>0.1643500060955428</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>964</v>
@@ -7428,19 +7428,19 @@
         <v>1034837</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>972913</v>
+        <v>971656</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1091480</v>
+        <v>1099582</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1503501727189946</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1413532799683412</v>
+        <v>0.1411706482678758</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1585798138917808</v>
+        <v>0.1597568806410147</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>151681</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>127710</v>
+        <v>128798</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>177794</v>
+        <v>177956</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04511926094397507</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03798881487805508</v>
+        <v>0.03831260106449472</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05288685219460417</v>
+        <v>0.05293499074871842</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>155</v>
@@ -7478,19 +7478,19 @@
         <v>179147</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>151811</v>
+        <v>153315</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>207865</v>
+        <v>209446</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05087867313234962</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04311498953672826</v>
+        <v>0.04354205618562321</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05903477388214856</v>
+        <v>0.05948376817847417</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>296</v>
@@ -7499,19 +7499,19 @@
         <v>330828</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>292613</v>
+        <v>295717</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>370417</v>
+        <v>372994</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04806561237344825</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04251336849371054</v>
+        <v>0.04296433030572787</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05381736790125553</v>
+        <v>0.05419181126521377</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>26145</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16945</v>
+        <v>16493</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>38876</v>
+        <v>37278</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007777283392044692</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.005040399862818063</v>
+        <v>0.004905981046810052</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01156405063402616</v>
+        <v>0.01108889316410726</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>28</v>
@@ -7549,19 +7549,19 @@
         <v>30510</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>20365</v>
+        <v>20948</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>43765</v>
+        <v>44379</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008665034254798983</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005783715538606044</v>
+        <v>0.005949455006779132</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0124294909379375</v>
+        <v>0.01260395811174598</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>51</v>
@@ -7570,19 +7570,19 @@
         <v>56656</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>42641</v>
+        <v>41888</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>73849</v>
+        <v>73416</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008231431478332355</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006195232816247074</v>
+        <v>0.006085924838257555</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01072943657767927</v>
+        <v>0.0106664503567719</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>175757</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>152416</v>
+        <v>153399</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>199116</v>
+        <v>198854</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3537290463556068</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3067525046167873</v>
+        <v>0.3087315022042071</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4007406162514751</v>
+        <v>0.4002132143652962</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>291</v>
@@ -7935,19 +7935,19 @@
         <v>223600</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>202292</v>
+        <v>204478</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>246224</v>
+        <v>246202</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3592609537184955</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3250248346419256</v>
+        <v>0.3285366227110839</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.395610821340232</v>
+        <v>0.3955763864081848</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>440</v>
@@ -7956,19 +7956,19 @@
         <v>399357</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>371470</v>
+        <v>368495</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>437233</v>
+        <v>435804</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3568051858727526</v>
+        <v>0.3568051858727527</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3318894774739466</v>
+        <v>0.3292313497516312</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3906454496666059</v>
+        <v>0.3893680784704035</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>156414</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>134751</v>
+        <v>133645</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>180069</v>
+        <v>178656</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3147992352249538</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2711990695705658</v>
+        <v>0.2689744002487512</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3624059288879738</v>
+        <v>0.3595619326454534</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>264</v>
@@ -8006,19 +8006,19 @@
         <v>191881</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>171308</v>
+        <v>171517</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>212715</v>
+        <v>212048</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3082977673685537</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2752427838255031</v>
+        <v>0.2755780769415028</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3417710950450129</v>
+        <v>0.3406997066975416</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>404</v>
@@ -8027,19 +8027,19 @@
         <v>348295</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>315687</v>
+        <v>317028</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>377344</v>
+        <v>377033</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3111839501378075</v>
+        <v>0.3111839501378076</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2820499169877297</v>
+        <v>0.2832481732615854</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3371374479754604</v>
+        <v>0.3368595861826558</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>76845</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>60934</v>
+        <v>61963</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>97769</v>
+        <v>96894</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1546574181563713</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1226354178956653</v>
+        <v>0.1247065267670774</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1967695894765429</v>
+        <v>0.1950096574114418</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>139</v>
@@ -8077,19 +8077,19 @@
         <v>93204</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>77453</v>
+        <v>79359</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>109860</v>
+        <v>108700</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1497526820119955</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1244454598596437</v>
+        <v>0.1275066051651503</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1765126650569055</v>
+        <v>0.1746493117629135</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>209</v>
@@ -8098,19 +8098,19 @@
         <v>170049</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>147108</v>
+        <v>145583</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>195100</v>
+        <v>195472</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1519300310753611</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1314330966689521</v>
+        <v>0.1300705470432989</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1743119302360636</v>
+        <v>0.1746437818035257</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>64634</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50110</v>
+        <v>51284</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>79866</v>
+        <v>80047</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1300819883267902</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1008517289143658</v>
+        <v>0.1032143407811815</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1607375418020144</v>
+        <v>0.1611021198515597</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>112</v>
@@ -8148,19 +8148,19 @@
         <v>78984</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65039</v>
+        <v>65683</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95225</v>
+        <v>96264</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1269040183093182</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1044993483012778</v>
+        <v>0.1055335831862931</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1529989103034026</v>
+        <v>0.1546679921859504</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>180</v>
@@ -8169,19 +8169,19 @@
         <v>143618</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>122504</v>
+        <v>124535</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>164441</v>
+        <v>166952</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1283148077661335</v>
+        <v>0.1283148077661336</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1094507508280887</v>
+        <v>0.1112653639502499</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1469197053420711</v>
+        <v>0.149163037399792</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>23220</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16003</v>
+        <v>14965</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33457</v>
+        <v>32969</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04673231193627796</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03220661567142153</v>
+        <v>0.03011921934401418</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06733584762787531</v>
+        <v>0.06635355217023814</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>53</v>
@@ -8219,19 +8219,19 @@
         <v>34720</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26020</v>
+        <v>26763</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>44396</v>
+        <v>45380</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0557845785916371</v>
+        <v>0.05578457859163712</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04180585801720295</v>
+        <v>0.0430004039548294</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07133106021796227</v>
+        <v>0.072913275466488</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>80</v>
@@ -8240,19 +8240,19 @@
         <v>57940</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>46028</v>
+        <v>47112</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>71324</v>
+        <v>73077</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.05176602514794515</v>
+        <v>0.05176602514794516</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04112370208356014</v>
+        <v>0.04209182050475337</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06372439650187575</v>
+        <v>0.06529050380868476</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>420550</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>388380</v>
+        <v>386145</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>456616</v>
+        <v>456294</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4383823734059417</v>
+        <v>0.4383823734059416</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4048483873299076</v>
+        <v>0.4025177406964348</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4759777667038135</v>
+        <v>0.4756420551097709</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>642</v>
@@ -8365,19 +8365,19 @@
         <v>469882</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>438922</v>
+        <v>439496</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>497952</v>
+        <v>500711</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.421098426233541</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3933525035041814</v>
+        <v>0.3938669997260505</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4462542134006144</v>
+        <v>0.4487264750037307</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1006</v>
@@ -8386,19 +8386,19 @@
         <v>890433</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>848431</v>
+        <v>840610</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>938275</v>
+        <v>938566</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4290885513049463</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4088486671619411</v>
+        <v>0.4050798465690182</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4521434701098997</v>
+        <v>0.4522834773394828</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>371473</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>339071</v>
+        <v>339631</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>405730</v>
+        <v>405429</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3872242350184771</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3534482106667733</v>
+        <v>0.3540316362084673</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4229334071041189</v>
+        <v>0.4226194007949194</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>639</v>
@@ -8436,19 +8436,19 @@
         <v>434993</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>406380</v>
+        <v>404469</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>463479</v>
+        <v>462698</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3898313658516547</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3641889300615601</v>
+        <v>0.3624761421961202</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.41536028098538</v>
+        <v>0.4146597682359994</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1007</v>
@@ -8457,19 +8457,19 @@
         <v>806466</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>766755</v>
+        <v>765700</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>852322</v>
+        <v>849722</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3886261260284348</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3694898127093789</v>
+        <v>0.3689816705104434</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4107236425165004</v>
+        <v>0.4094706843740141</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>101248</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>83132</v>
+        <v>83536</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>123952</v>
+        <v>124007</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1055405813124895</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08665707499490148</v>
+        <v>0.08707854209542799</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1292080734384927</v>
+        <v>0.1292655051025152</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>209</v>
@@ -8507,19 +8507,19 @@
         <v>133851</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>117243</v>
+        <v>115868</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>153146</v>
+        <v>152474</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1199545892903099</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1050708055011202</v>
+        <v>0.1038387759379945</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1372463780489641</v>
+        <v>0.1366441448169841</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>316</v>
@@ -8528,19 +8528,19 @@
         <v>235099</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>209809</v>
+        <v>209513</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>265177</v>
+        <v>264955</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1132911966419614</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1011045144175181</v>
+        <v>0.1009617696198492</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1277854328747546</v>
+        <v>0.1276783943923695</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>49477</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38065</v>
+        <v>37746</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66924</v>
+        <v>65251</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05157534248138097</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03967904490661073</v>
+        <v>0.03934643530501133</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06976204170829411</v>
+        <v>0.06801757347450881</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -8578,19 +8578,19 @@
         <v>62207</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51070</v>
+        <v>50773</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77738</v>
+        <v>76446</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05574841512672454</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04576746452607646</v>
+        <v>0.04550127312403216</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06966730037605272</v>
+        <v>0.06850968272982046</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>147</v>
@@ -8599,19 +8599,19 @@
         <v>111684</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>92692</v>
+        <v>95144</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>129751</v>
+        <v>131015</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05381926248376815</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04466707841379985</v>
+        <v>0.04584866179975156</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06252529480430243</v>
+        <v>0.06313435397153709</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>16575</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9960</v>
+        <v>10186</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26033</v>
+        <v>26848</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01727746778171083</v>
+        <v>0.01727746778171082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01038252624774242</v>
+        <v>0.01061787198244674</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02713654022031052</v>
+        <v>0.0279860896580033</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -8649,19 +8649,19 @@
         <v>14916</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9680</v>
+        <v>9392</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24514</v>
+        <v>23270</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01336720349776977</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008675043694096713</v>
+        <v>0.008416914930869645</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02196908151947998</v>
+        <v>0.02085370823279502</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -8670,19 +8670,19 @@
         <v>31490</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22638</v>
+        <v>22517</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44082</v>
+        <v>45559</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.01517486354088934</v>
+        <v>0.01517486354088933</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01090879109227144</v>
+        <v>0.01085048146352045</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02124260071331713</v>
+        <v>0.02195425020318352</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>613666</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>579154</v>
+        <v>575008</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>648012</v>
+        <v>646104</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5864101206574565</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5534313730937422</v>
+        <v>0.5494689564713808</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6192309078118706</v>
+        <v>0.6174072000687432</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>810</v>
@@ -8795,19 +8795,19 @@
         <v>570883</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>542411</v>
+        <v>543208</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>598494</v>
+        <v>601052</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5465838617157618</v>
+        <v>0.5465838617157617</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5193234589864839</v>
+        <v>0.5200863283829281</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5730189781774491</v>
+        <v>0.5754687368560174</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1377</v>
@@ -8816,19 +8816,19 @@
         <v>1184549</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1141515</v>
+        <v>1140339</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1227768</v>
+        <v>1231354</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5665162488598969</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5459349428675805</v>
+        <v>0.5453726511143655</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5871858798577702</v>
+        <v>0.5889009124520483</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>335502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>304094</v>
+        <v>306397</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>369609</v>
+        <v>368688</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3206009102259912</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2905878900693084</v>
+        <v>0.2927888330311126</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3531929943891246</v>
+        <v>0.3523127993531729</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>526</v>
@@ -8866,19 +8866,19 @@
         <v>354601</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>328132</v>
+        <v>325602</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>381685</v>
+        <v>380260</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3395073164639481</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3141655759390862</v>
+        <v>0.311742994912253</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3654385371479541</v>
+        <v>0.3640738806714922</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>883</v>
@@ -8887,19 +8887,19 @@
         <v>690103</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>645453</v>
+        <v>650082</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>734086</v>
+        <v>731890</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3300449713014021</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3086908888420259</v>
+        <v>0.3109047354836232</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3510801667566994</v>
+        <v>0.3500296515430468</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>62721</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>48766</v>
+        <v>48310</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>78964</v>
+        <v>80494</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05993564861155273</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04660026825674844</v>
+        <v>0.0461644118090287</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07545710048702975</v>
+        <v>0.07691920906268114</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>92</v>
@@ -8937,19 +8937,19 @@
         <v>62769</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51232</v>
+        <v>50433</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>79765</v>
+        <v>76575</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.0600973679405177</v>
+        <v>0.06009736794051769</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04905084824979105</v>
+        <v>0.04828591119890122</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07636998281642718</v>
+        <v>0.07331574786873017</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>159</v>
@@ -8958,19 +8958,19 @@
         <v>125491</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>106790</v>
+        <v>107475</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>146215</v>
+        <v>149064</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06001643007792963</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05107301055300188</v>
+        <v>0.05140024831000028</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06992787298773295</v>
+        <v>0.07129038228860642</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>26906</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18013</v>
+        <v>19335</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37335</v>
+        <v>38845</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02571098895863338</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01721299337819268</v>
+        <v>0.0184759409795696</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03567642433823777</v>
+        <v>0.03711938364989664</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -9008,19 +9008,19 @@
         <v>44160</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34220</v>
+        <v>35342</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55810</v>
+        <v>56327</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04228062086910156</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03276339280885385</v>
+        <v>0.03383800962421329</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05343461464220036</v>
+        <v>0.05392915407489122</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>99</v>
@@ -9029,19 +9029,19 @@
         <v>71066</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56466</v>
+        <v>58119</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>86505</v>
+        <v>87609</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03398779279908919</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0270049134652878</v>
+        <v>0.02779552475805179</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04137120742069104</v>
+        <v>0.04189952263559076</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>7684</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2346</v>
+        <v>1979</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23022</v>
+        <v>22966</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007342331546366156</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002241456772282717</v>
+        <v>0.001891313801606932</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02199915908730751</v>
+        <v>0.02194628789993525</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -9079,19 +9079,19 @@
         <v>12043</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7046</v>
+        <v>6668</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18490</v>
+        <v>18569</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01153083301067085</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006746086585973481</v>
+        <v>0.006384417914291381</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01770257721436153</v>
+        <v>0.01777880320621596</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -9100,19 +9100,19 @@
         <v>19727</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12278</v>
+        <v>12076</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>33711</v>
+        <v>35591</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009434556961682114</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005872000216759633</v>
+        <v>0.005775336074154701</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01612241273081873</v>
+        <v>0.01702168412038527</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>608816</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>571411</v>
+        <v>574668</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>640351</v>
+        <v>641052</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6238322772248839</v>
+        <v>0.6238322772248837</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5855047797881836</v>
+        <v>0.5888423954246319</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6561455214367121</v>
+        <v>0.6568630631786302</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>758</v>
@@ -9225,19 +9225,19 @@
         <v>545918</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>517433</v>
+        <v>516975</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>569749</v>
+        <v>570905</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6014653848427902</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5700819165968501</v>
+        <v>0.5695774966473365</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6277204189070084</v>
+        <v>0.6289949904779547</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1325</v>
@@ -9246,19 +9246,19 @@
         <v>1154734</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1112585</v>
+        <v>1109991</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1197456</v>
+        <v>1195207</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.613054245083524</v>
+        <v>0.6130542450835241</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5906769491641455</v>
+        <v>0.5892996505468493</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6357352365241264</v>
+        <v>0.6345415871785297</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>234999</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>208799</v>
+        <v>206966</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>265457</v>
+        <v>266055</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2407953855582918</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2139487817029618</v>
+        <v>0.212070844595917</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2720043943316933</v>
+        <v>0.2726169902640215</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>404</v>
@@ -9296,19 +9296,19 @@
         <v>240719</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>220361</v>
+        <v>219373</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>268042</v>
+        <v>265074</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2652125686591895</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2427828914812561</v>
+        <v>0.2416939017694292</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.295315138957282</v>
+        <v>0.2920450081554237</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>664</v>
@@ -9317,19 +9317,19 @@
         <v>475719</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>439885</v>
+        <v>439188</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>511215</v>
+        <v>510905</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2525614002449645</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2335371488449483</v>
+        <v>0.2331671856485517</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2714068715920212</v>
+        <v>0.271241882951147</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>69168</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>51900</v>
+        <v>53328</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>90384</v>
+        <v>90577</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.07087433673109995</v>
+        <v>0.07087433673109994</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05318043163363823</v>
+        <v>0.05464365804635406</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09261288165866602</v>
+        <v>0.0928111046693552</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>65</v>
@@ -9367,19 +9367,19 @@
         <v>50925</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>38947</v>
+        <v>39386</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>64561</v>
+        <v>65978</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05610644592698213</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04291000255019751</v>
+        <v>0.04339390334474444</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07112986676475969</v>
+        <v>0.07269075236642801</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>127</v>
@@ -9388,19 +9388,19 @@
         <v>120093</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>100447</v>
+        <v>100478</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>143825</v>
+        <v>146959</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.06375806867616443</v>
+        <v>0.06375806867616444</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05332784570427054</v>
+        <v>0.05334429939642105</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07635765920415494</v>
+        <v>0.07802102030503524</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>53666</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39950</v>
+        <v>40009</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>72263</v>
+        <v>72508</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05499010210825066</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0409356318700175</v>
+        <v>0.04099582493845753</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07404540871025408</v>
+        <v>0.0742962671283602</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>77</v>
@@ -9438,19 +9438,19 @@
         <v>53792</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>43011</v>
+        <v>42167</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67327</v>
+        <v>66772</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05926541523733082</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04738706602834125</v>
+        <v>0.04645758338029867</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07417762825177215</v>
+        <v>0.07356647410610055</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>125</v>
@@ -9459,19 +9459,19 @@
         <v>107459</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>89363</v>
+        <v>89921</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>130217</v>
+        <v>128828</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05705026592235714</v>
+        <v>0.05705026592235715</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04744305299171169</v>
+        <v>0.04773965941277023</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06913261329980687</v>
+        <v>0.06839547443529446</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>9279</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4147</v>
+        <v>4445</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17793</v>
+        <v>17824</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009507898377473806</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00424917637389799</v>
+        <v>0.004554876785065686</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01823224013731184</v>
+        <v>0.0182640784969184</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -9509,19 +9509,19 @@
         <v>16292</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9096</v>
+        <v>8636</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29826</v>
+        <v>30399</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01795018533370736</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01002193199154983</v>
+        <v>0.009514199932244585</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03286092550352327</v>
+        <v>0.03349260759191778</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>25</v>
@@ -9530,19 +9530,19 @@
         <v>25571</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16157</v>
+        <v>16037</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>39106</v>
+        <v>40727</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01357602007298985</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008577842732911657</v>
+        <v>0.008514232431677491</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02076160519386822</v>
+        <v>0.02162197726183942</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>1818790</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1751606</v>
+        <v>1752302</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1885802</v>
+        <v>1879163</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5228508558407408</v>
+        <v>0.5228508558407409</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5035372266653638</v>
+        <v>0.5037373802949509</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5421148394634716</v>
+        <v>0.5402063402332066</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2501</v>
@@ -9655,19 +9655,19 @@
         <v>1810284</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1755024</v>
+        <v>1757801</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1867524</v>
+        <v>1861513</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4905463850155911</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4755721048381976</v>
+        <v>0.4763245732124338</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.506057207083772</v>
+        <v>0.5044282283605709</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4148</v>
@@ -9676,19 +9676,19 @@
         <v>3629074</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3550608</v>
+        <v>3544422</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3714137</v>
+        <v>3705622</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5062215503773889</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4952762655081461</v>
+        <v>0.4944133577425023</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5180869998024592</v>
+        <v>0.5168992503195361</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>1098389</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1036980</v>
+        <v>1039612</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1156277</v>
+        <v>1159082</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3157558771166117</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2981023846587839</v>
+        <v>0.2988592307123497</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3323969679623169</v>
+        <v>0.3332033969482175</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1833</v>
@@ -9726,19 +9726,19 @@
         <v>1222194</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1170350</v>
+        <v>1173983</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1274557</v>
+        <v>1270086</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3311872668589528</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3171387359604003</v>
+        <v>0.3181231050711026</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3453763101680539</v>
+        <v>0.3441648321333817</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2958</v>
@@ -9747,19 +9747,19 @@
         <v>2320583</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2242376</v>
+        <v>2248266</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2399111</v>
+        <v>2397567</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3236994616172947</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3127903106055167</v>
+        <v>0.3136118213176312</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3346532857236218</v>
+        <v>0.3344379661953092</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>309982</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>276234</v>
+        <v>274488</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>347389</v>
+        <v>348174</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08911107355329828</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07940957077103475</v>
+        <v>0.0789076433068255</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09986442169712588</v>
+        <v>0.1000902089524211</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>505</v>
@@ -9797,19 +9797,19 @@
         <v>340750</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>311054</v>
+        <v>310412</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>370099</v>
+        <v>374227</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.09233550416634853</v>
+        <v>0.09233550416634854</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08428872416670487</v>
+        <v>0.08411464193610863</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1002884123137958</v>
+        <v>0.101407106048664</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>811</v>
@@ -9818,19 +9818,19 @@
         <v>650732</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>602199</v>
+        <v>608730</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>697630</v>
+        <v>707945</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.09077090701412228</v>
+        <v>0.09077090701412227</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08400113818535407</v>
+        <v>0.08491209195109806</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.097312773159153</v>
+        <v>0.09875170813266089</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>194684</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>167754</v>
+        <v>167485</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>225576</v>
+        <v>223543</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.05596609576374236</v>
+        <v>0.05596609576374238</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0482244670662715</v>
+        <v>0.04814712169402321</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0648467483151253</v>
+        <v>0.06426238718792794</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>351</v>
@@ -9868,19 +9868,19 @@
         <v>239143</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>215943</v>
+        <v>212568</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>267353</v>
+        <v>266190</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.06480234924594036</v>
+        <v>0.06480234924594037</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05851568010915971</v>
+        <v>0.05760105366047957</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07244664622506564</v>
+        <v>0.07213155354432604</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>551</v>
@@ -9889,19 +9889,19 @@
         <v>433827</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>399145</v>
+        <v>398280</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>473673</v>
+        <v>474869</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06051471564680454</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05567696685426357</v>
+        <v>0.05555629590328554</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06607292602667331</v>
+        <v>0.06623974309060905</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>56757</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>43050</v>
+        <v>43864</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>74400</v>
+        <v>74325</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0163160977256068</v>
+        <v>0.01631609772560679</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01237567682838816</v>
+        <v>0.0126095720470423</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02138782620929232</v>
+        <v>0.02136642551312</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>107</v>
@@ -9939,19 +9939,19 @@
         <v>77971</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>61315</v>
+        <v>63756</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>94140</v>
+        <v>96602</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02112849471316715</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01661492757134794</v>
+        <v>0.01727641644750806</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02550984304053458</v>
+        <v>0.02617690700164867</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>168</v>
@@ -9960,19 +9960,19 @@
         <v>134729</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>112961</v>
+        <v>112448</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>158830</v>
+        <v>158301</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.01879336534438955</v>
+        <v>0.01879336534438956</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01575692901700698</v>
+        <v>0.01568549142161537</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02215525438072156</v>
+        <v>0.02208149323968987</v>
       </c>
     </row>
     <row r="33">
